--- a/biology/Médecine/Faculté_de_santé_de_l'université_Paris-Cité/Faculté_de_santé_de_l'université_Paris-Cité.xlsx
+++ b/biology/Médecine/Faculté_de_santé_de_l'université_Paris-Cité/Faculté_de_santé_de_l'université_Paris-Cité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Faculté_de_santé_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La faculté de santé de l'université de Paris-Cité est un regroupement de composantes de l'université Paris-Cité[1],[2].
-La faculté de santé de l'université Paris-Cité (alors dénommée « université de Paris ») a été créée par le décret du 20 mars 2019. Elle regroupe l'UFR de médecine, de la faculté de pharmacie et de l'UFR unifiée d'odontologie (sites Montrouge et Garancière)[2], issues de la fusion des universités Paris-Descartes et Paris-Diderot. Xavier Jeunemaitre (d) est le doyen de la faculté[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faculté de santé de l'université de Paris-Cité est un regroupement de composantes de l'université Paris-Cité,.
+La faculté de santé de l'université Paris-Cité (alors dénommée « université de Paris ») a été créée par le décret du 20 mars 2019. Elle regroupe l'UFR de médecine, de la faculté de pharmacie et de l'UFR unifiée d'odontologie (sites Montrouge et Garancière), issues de la fusion des universités Paris-Descartes et Paris-Diderot. Xavier Jeunemaitre (d) est le doyen de la faculté.
 Quatre groupes hospitaliers universitaires y sont rattachés, faisant de la faculté la 1re structure universitaire partenaire de l'Assistance publique - Hôpitaux de Paris :
 le GHU AP-HP Centre Université Paris-Cité, comprenant 8 hôpitaux ;
 le GHU AP-HP Nord Université Paris-Cité, comprenant 7 hôpitaux ;
 le GHU AP-HP Hôpitaux universitaires Paris Seine-Saint-Denis, comprenant 3 hôpitaux ;
 ainsi que le GHU Paris Psychiatrie &amp; neurosciences, comprenant 3 hôpitaux.
-Son unité de formation et de recherche de médecine est la première de France par son nombre d'étudiants, d'enseignants et de laboratoires de recherche[4]. Celle-ci revendique avec la faculté de médecine de Sorbonne Université, l'héritage de la faculté de médecine de Paris.
+Son unité de formation et de recherche de médecine est la première de France par son nombre d'étudiants, d'enseignants et de laboratoires de recherche. Celle-ci revendique avec la faculté de médecine de Sorbonne Université, l'héritage de la faculté de médecine de Paris.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Faculté_de_santé_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2021, les statuts de la faculté sont adoptés par le conseil de faculté réuni en séance plénière[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2021, les statuts de la faculté sont adoptés par le conseil de faculté réuni en séance plénière.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Faculté_de_santé_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,18 +563,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Siège : 2, rue Valette, au nord de la bibliothèque interuniversitaire Sainte-Barbe dans le 6e arrondissement de Paris.
-La faculté de santé rassemble trois composantes[6] :
-l'UFR de médecine, 15, rue de l'École-de-Médecine, le long du boulevard Saint-Germain dans le 6e arrondissement de Paris. C'est le site historique du Collège de chirurgie improprement appelé les Cordeliers[7], siège de l'université Paris-Cité.
+La faculté de santé rassemble trois composantes :
+l'UFR de médecine, 15, rue de l'École-de-Médecine, le long du boulevard Saint-Germain dans le 6e arrondissement de Paris. C'est le site historique du Collège de chirurgie improprement appelé les Cordeliers, siège de l'université Paris-Cité.
 Doyen : Philippe Ruszniewski (d)
 la Faculté de pharmacie de Paris, 4 avenue de l’Observatoire ;
 Doyen : Jean-Louis Beaudeux (d)
 l'UFR d'odontologie (faculté de chirurgie dentaire) avec deux implantations :
 (Montrouge), 1 rue Maurice-Arnoux, Montrouge ;
 (Garancière), 5 rue Garancière ;
-Doyen : Vianney Descroix (d)[8]</t>
+Doyen : Vianney Descroix (d)</t>
         </is>
       </c>
     </row>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_sant%C3%A9_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Faculté_de_santé_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Doyen de la faculté : Xavier Jeunemaitre (d)
 Vice-doyenne « recherche » : Catherine Chaussain (d)
